--- a/HRM/api/Resources/Template/SalaryReport/7_2_15_MonthlyUnionDuesSummary/Download.xlsx
+++ b/HRM/api/Resources/Template/SalaryReport/7_2_15_MonthlyUnionDuesSummary/Download.xlsx
@@ -106,27 +106,26 @@
     <t>4.5% Medical Insurance Fee</t>
   </si>
   <si>
+    <t>Group Sum(UnionDues)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Group Sum(Insurance)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Group Sum(TotalAmount)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>TotalAmount</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Group Sum(UnionDues)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Group Sum(Insurance)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Group Sum(TotalAmount)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -177,6 +176,20 @@
       <name val="Calibri"/>
       <family val="1"/>
       <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -219,7 +232,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
@@ -244,14 +257,23 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -538,7 +560,7 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -630,44 +652,45 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:8" s="9" customFormat="1" ht="16.5">
-      <c r="A7" s="10" t="s">
+    <row r="7" spans="1:8" s="14" customFormat="1" ht="15.75">
+      <c r="A7" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="E7" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="F7" s="15" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="15.75">
+      <c r="B8" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" ht="15.75">
-      <c r="B8" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="F8" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>27</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>